--- a/Tests/Щелевой заряд/data_6.xlsx
+++ b/Tests/Щелевой заряд/data_6.xlsx
@@ -405,10 +405,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="C2">
-        <v>2.064</v>
+        <v>2.069</v>
       </c>
       <c r="D2">
-        <v>2444.64</v>
+        <v>2445.301</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>0.024</v>
       </c>
       <c r="C3">
-        <v>9.586</v>
+        <v>9.581</v>
       </c>
       <c r="D3">
-        <v>3260.431</v>
+        <v>3260.749</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -450,7 +450,7 @@
         <v>0.163</v>
       </c>
       <c r="D5">
-        <v>1954.795</v>
+        <v>1954.79</v>
       </c>
     </row>
   </sheetData>
